--- a/feasibility_prototypes/SR_batteries_benchmarking_A/Load Resistors.xlsx
+++ b/feasibility_prototypes/SR_batteries_benchmarking_A/Load Resistors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Dual Cell</t>
   </si>
@@ -439,6 +439,34 @@
         <scheme val="minor"/>
       </rPr>
       <t>L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@ 100 m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@ 120 m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
     </r>
   </si>
 </sst>
@@ -854,7 +882,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,8 +1215,27 @@
       <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="1"/>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="6">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1214,8 +1261,28 @@
         <v>22</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M12" s="6"/>
+      <c r="N12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="6">
+        <v>158.5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
